--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-digits-top-by-haul.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-digits-top-by-haul.xlsx
@@ -59,7 +59,7 @@
     <t>valula</t>
   </si>
   <si>
-    <t>226 ч. 43 мин. 4 сек.</t>
+    <t>226 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>3</t>
@@ -68,7 +68,7 @@
     <t>Evariste</t>
   </si>
   <si>
-    <t>216 ч. 8 мин. 54 сек.</t>
+    <t>216 ч. 08 мин. 54 сек.</t>
   </si>
   <si>
     <t>4</t>
@@ -86,7 +86,7 @@
     <t>я_араб</t>
   </si>
   <si>
-    <t>146 ч. 3 мин. 19 сек.</t>
+    <t>146 ч. 03 мин. 19 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -104,7 +104,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>100 ч. 7 мин. 54 сек.</t>
+    <t>100 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -158,7 +158,7 @@
     <t>vitaha</t>
   </si>
   <si>
-    <t>72 ч. 55 мин. 6 сек.</t>
+    <t>72 ч. 55 мин. 06 сек.</t>
   </si>
   <si>
     <t>14</t>
@@ -329,7 +329,7 @@
     <t>bolbol</t>
   </si>
   <si>
-    <t>37 ч. 9 мин. 22 сек.</t>
+    <t>37 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>33</t>
@@ -338,7 +338,7 @@
     <t>Botin</t>
   </si>
   <si>
-    <t>36 ч. 42 мин. 2 сек.</t>
+    <t>36 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>34</t>
@@ -356,7 +356,7 @@
     <t>igormsu</t>
   </si>
   <si>
-    <t>36 ч. 6 мин. 34 сек.</t>
+    <t>36 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>36</t>
@@ -392,7 +392,7 @@
     <t>xlsx</t>
   </si>
   <si>
-    <t>35 ч. 23 мин. 9 сек.</t>
+    <t>35 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>40</t>
@@ -401,7 +401,7 @@
     <t>Erzhanov</t>
   </si>
   <si>
-    <t>35 ч. 22 мин. 5 сек.</t>
+    <t>35 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>41</t>
@@ -428,7 +428,7 @@
     <t>4u6uc</t>
   </si>
   <si>
-    <t>34 ч. 1 мин. 40 сек.</t>
+    <t>34 ч. 01 мин. 40 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -500,7 +500,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>28 ч. 9 мин. 34 сек.</t>
+    <t>28 ч. 09 мин. 34 сек.</t>
   </si>
   <si>
     <t>52</t>
@@ -509,7 +509,7 @@
     <t>GrozaPogromov</t>
   </si>
   <si>
-    <t>28 ч. 7 мин. 22 сек.</t>
+    <t>28 ч. 07 мин. 22 сек.</t>
   </si>
   <si>
     <t>53</t>
@@ -527,7 +527,7 @@
     <t>llllllllllllll</t>
   </si>
   <si>
-    <t>27 ч. 47 мин. 4 сек.</t>
+    <t>27 ч. 47 мин. 04 сек.</t>
   </si>
   <si>
     <t>55</t>
@@ -536,7 +536,7 @@
     <t>Spetznaz</t>
   </si>
   <si>
-    <t>27 ч. 5 мин. 35 сек.</t>
+    <t>27 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>56</t>
@@ -554,7 +554,7 @@
     <t>KyKyzya</t>
   </si>
   <si>
-    <t>26 ч. 38 мин. 5 сек.</t>
+    <t>26 ч. 38 мин. 05 сек.</t>
   </si>
   <si>
     <t>58</t>
@@ -563,7 +563,7 @@
     <t>Supersonic</t>
   </si>
   <si>
-    <t>26 ч. 24 мин. 5 сек.</t>
+    <t>26 ч. 24 мин. 05 сек.</t>
   </si>
   <si>
     <t>59</t>
@@ -572,7 +572,7 @@
     <t>Radius</t>
   </si>
   <si>
-    <t>26 ч. 5 мин. 19 сек.</t>
+    <t>26 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>60</t>
@@ -626,7 +626,7 @@
     <t>Static</t>
   </si>
   <si>
-    <t>23 ч. 56 мин. 9 сек.</t>
+    <t>23 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>66</t>
@@ -635,7 +635,7 @@
     <t>Denzilman</t>
   </si>
   <si>
-    <t>23 ч. 47 мин. 8 сек.</t>
+    <t>23 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>67</t>
@@ -689,7 +689,7 @@
     <t>Радончег</t>
   </si>
   <si>
-    <t>22 ч. 21 мин. 5 сек.</t>
+    <t>22 ч. 21 мин. 05 сек.</t>
   </si>
   <si>
     <t>73</t>
@@ -707,7 +707,7 @@
     <t>L_I_R_A</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 19 сек.</t>
+    <t>22 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>75</t>
@@ -743,7 +743,7 @@
     <t>docomo68k</t>
   </si>
   <si>
-    <t>21 ч. 1 мин. 52 сек.</t>
+    <t>21 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>79</t>
@@ -770,7 +770,7 @@
     <t>PROFI</t>
   </si>
   <si>
-    <t>20 ч. 34 мин. 0 сек.</t>
+    <t>20 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>82</t>
@@ -824,7 +824,7 @@
     <t>sbox</t>
   </si>
   <si>
-    <t>19 ч. 28 мин. 3 сек.</t>
+    <t>19 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>88</t>
@@ -851,7 +851,7 @@
     <t>dubrav</t>
   </si>
   <si>
-    <t>19 ч. 2 мин. 17 сек.</t>
+    <t>19 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>91</t>
@@ -950,7 +950,7 @@
     <t>WERT7</t>
   </si>
   <si>
-    <t>17 ч. 5 мин. 20 сек.</t>
+    <t>17 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>102</t>
@@ -995,7 +995,7 @@
     <t>Zoomskij</t>
   </si>
   <si>
-    <t>16 ч. 32 мин. 3 сек.</t>
+    <t>16 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>107</t>
@@ -1022,7 +1022,7 @@
     <t>s3erios</t>
   </si>
   <si>
-    <t>16 ч. 4 мин. 36 сек.</t>
+    <t>16 ч. 04 мин. 36 сек.</t>
   </si>
   <si>
     <t>110</t>
@@ -1049,7 +1049,7 @@
     <t>Florance</t>
   </si>
   <si>
-    <t>15 ч. 38 мин. 8 сек.</t>
+    <t>15 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>113</t>
@@ -1085,7 +1085,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>15 ч. 10 мин. 3 сек.</t>
+    <t>15 ч. 10 мин. 03 сек.</t>
   </si>
   <si>
     <t>117</t>
@@ -1094,7 +1094,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>15 ч. 8 мин. 2 сек.</t>
+    <t>15 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>118</t>
@@ -1103,7 +1103,7 @@
     <t>Savitri</t>
   </si>
   <si>
-    <t>15 ч. 5 мин. 1 сек.</t>
+    <t>15 ч. 05 мин. 01 сек.</t>
   </si>
   <si>
     <t>119</t>
@@ -1112,7 +1112,7 @@
     <t>клавмен</t>
   </si>
   <si>
-    <t>15 ч. 1 мин. 49 сек.</t>
+    <t>15 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>120</t>
@@ -1121,7 +1121,7 @@
     <t>olimo</t>
   </si>
   <si>
-    <t>15 ч. 1 мин. 34 сек.</t>
+    <t>15 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>121</t>
@@ -1130,7 +1130,7 @@
     <t>моном</t>
   </si>
   <si>
-    <t>14 ч. 40 мин. 0 сек.</t>
+    <t>14 ч. 40 мин. 00 сек.</t>
   </si>
   <si>
     <t>122</t>
@@ -1139,7 +1139,7 @@
     <t>selsa</t>
   </si>
   <si>
-    <t>14 ч. 38 мин. 1 сек.</t>
+    <t>14 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>123</t>
@@ -1184,7 +1184,7 @@
     <t>natik1977</t>
   </si>
   <si>
-    <t>14 ч. 8 мин. 13 сек.</t>
+    <t>14 ч. 08 мин. 13 сек.</t>
   </si>
   <si>
     <t>128</t>
@@ -1193,7 +1193,7 @@
     <t>Escamillo</t>
   </si>
   <si>
-    <t>13 ч. 50 мин. 6 сек.</t>
+    <t>13 ч. 50 мин. 06 сек.</t>
   </si>
   <si>
     <t>129</t>
@@ -1247,7 +1247,7 @@
     <t>Skao</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 57 сек.</t>
+    <t>13 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>135</t>
@@ -1301,7 +1301,7 @@
     <t>bot1</t>
   </si>
   <si>
-    <t>12 ч. 21 мин. 7 сек.</t>
+    <t>12 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>141</t>
@@ -1328,7 +1328,7 @@
     <t>MONZA</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 42 сек.</t>
+    <t>12 ч. 09 мин. 42 сек.</t>
   </si>
   <si>
     <t>144</t>
@@ -1337,7 +1337,7 @@
     <t>Anatoly79</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 51 сек.</t>
+    <t>12 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>145</t>
@@ -1346,7 +1346,7 @@
     <t>timelimit</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 48 сек.</t>
+    <t>12 ч. 04 мин. 48 сек.</t>
   </si>
   <si>
     <t>146</t>
@@ -1355,7 +1355,7 @@
     <t>Lelick</t>
   </si>
   <si>
-    <t>11 ч. 52 мин. 0 сек.</t>
+    <t>11 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>147</t>
@@ -1391,7 +1391,7 @@
     <t>vitalik_13</t>
   </si>
   <si>
-    <t>11 ч. 44 мин. 9 сек.</t>
+    <t>11 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>151</t>
@@ -1400,7 +1400,7 @@
     <t>Solitaire</t>
   </si>
   <si>
-    <t>11 ч. 44 мин. 0 сек.</t>
+    <t>11 ч. 44 мин. 00 сек.</t>
   </si>
   <si>
     <t>152</t>
@@ -1436,7 +1436,7 @@
     <t>Genek</t>
   </si>
   <si>
-    <t>11 ч. 16 мин. 0 сек.</t>
+    <t>11 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>156</t>
@@ -1463,7 +1463,7 @@
     <t>MD2044</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 9 сек.</t>
+    <t>11 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>159</t>
@@ -1472,7 +1472,7 @@
     <t>Sauvage</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 48 сек.</t>
+    <t>11 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>160</t>
@@ -1481,7 +1481,7 @@
     <t>exdark</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 23 сек.</t>
+    <t>11 ч. 05 мин. 23 сек.</t>
   </si>
   <si>
     <t>161</t>
@@ -1490,7 +1490,7 @@
     <t>msmarpl</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 55 сек.</t>
+    <t>11 ч. 04 мин. 55 сек.</t>
   </si>
   <si>
     <t>162</t>
@@ -1499,7 +1499,7 @@
     <t>AcidMan</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 39 сек.</t>
+    <t>11 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>163</t>
@@ -1508,7 +1508,7 @@
     <t>DVRazor</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 25 сек.</t>
+    <t>11 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>164</t>
@@ -1517,7 +1517,7 @@
     <t>непонятно</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 25 сек.</t>
+    <t>11 ч. 01 мин. 25 сек.</t>
   </si>
   <si>
     <t>165</t>
@@ -1571,7 +1571,7 @@
     <t>HRUST</t>
   </si>
   <si>
-    <t>10 ч. 35 мин. 7 сек.</t>
+    <t>10 ч. 35 мин. 07 сек.</t>
   </si>
   <si>
     <t>171</t>
@@ -1652,7 +1652,7 @@
     <t>Irina2305</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 29 сек.</t>
+    <t>10 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>180</t>
@@ -1661,7 +1661,7 @@
     <t>__Anastasia__</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 11 сек.</t>
+    <t>10 ч. 00 мин. 11 сек.</t>
   </si>
   <si>
     <t>181</t>
@@ -1670,7 +1670,7 @@
     <t>kpasten</t>
   </si>
   <si>
-    <t>9 ч. 59 мин. 7 сек.</t>
+    <t>9 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>182</t>
@@ -1724,7 +1724,7 @@
     <t>Pisaka</t>
   </si>
   <si>
-    <t>9 ч. 49 мин. 5 сек.</t>
+    <t>9 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>188</t>
@@ -1760,7 +1760,7 @@
     <t>Геос</t>
   </si>
   <si>
-    <t>9 ч. 29 мин. 8 сек.</t>
+    <t>9 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>192</t>
@@ -1823,7 +1823,7 @@
     <t>SpazZm</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 2 сек.</t>
+    <t>9 ч. 07 мин. 02 сек.</t>
   </si>
   <si>
     <t>199</t>
@@ -1832,7 +1832,7 @@
     <t>valeryani</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 23 сек.</t>
+    <t>9 ч. 05 мин. 23 сек.</t>
   </si>
   <si>
     <t>200</t>
@@ -1850,7 +1850,7 @@
     <t>speederman</t>
   </si>
   <si>
-    <t>8 ч. 54 мин. 0 сек.</t>
+    <t>8 ч. 54 мин. 00 сек.</t>
   </si>
   <si>
     <t>202</t>
@@ -1976,7 +1976,7 @@
     <t>alex_crazy</t>
   </si>
   <si>
-    <t>8 ч. 31 мин. 7 сек.</t>
+    <t>8 ч. 31 мин. 07 сек.</t>
   </si>
   <si>
     <t>216</t>
@@ -1994,7 +1994,7 @@
     <t>Auril</t>
   </si>
   <si>
-    <t>8 ч. 27 мин. 3 сек.</t>
+    <t>8 ч. 27 мин. 03 сек.</t>
   </si>
   <si>
     <t>218</t>
@@ -2048,7 +2048,7 @@
     <t>-Жу-</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 47 сек.</t>
+    <t>8 ч. 05 мин. 47 сек.</t>
   </si>
   <si>
     <t>Турбозавр</t>
@@ -2060,7 +2060,7 @@
     <t>Бэтмен</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 46 сек.</t>
+    <t>8 ч. 05 мин. 46 сек.</t>
   </si>
   <si>
     <t>226</t>
@@ -2069,7 +2069,7 @@
     <t>kateruna</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 10 сек.</t>
+    <t>8 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>227</t>
@@ -2078,7 +2078,7 @@
     <t>Lee11</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 43 сек.</t>
+    <t>8 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>228</t>
@@ -2177,7 +2177,7 @@
     <t>EkonomiSSSt</t>
   </si>
   <si>
-    <t>7 ч. 41 мин. 9 сек.</t>
+    <t>7 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>239</t>
@@ -2276,7 +2276,7 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>7 ч. 22 мин. 2 сек.</t>
+    <t>7 ч. 22 мин. 02 сек.</t>
   </si>
   <si>
     <t>250</t>
@@ -2294,7 +2294,7 @@
     <t>Filosof03</t>
   </si>
   <si>
-    <t>7 ч. 20 мин. 9 сек.</t>
+    <t>7 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>252</t>
@@ -2312,7 +2312,7 @@
     <t>Мимо_проходил</t>
   </si>
   <si>
-    <t>7 ч. 15 мин. 0 сек.</t>
+    <t>7 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>254</t>
@@ -2330,7 +2330,7 @@
     <t>spiderokk</t>
   </si>
   <si>
-    <t>7 ч. 11 мин. 2 сек.</t>
+    <t>7 ч. 11 мин. 02 сек.</t>
   </si>
   <si>
     <t>256</t>
@@ -2339,7 +2339,7 @@
     <t>Диктатор</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 16 сек.</t>
+    <t>7 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>257</t>
@@ -2348,7 +2348,7 @@
     <t>Radimir</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 27 сек.</t>
+    <t>7 ч. 07 мин. 27 сек.</t>
   </si>
   <si>
     <t>258</t>
@@ -2357,7 +2357,7 @@
     <t>ToNick</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 56 сек.</t>
+    <t>7 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>259</t>
@@ -2366,7 +2366,7 @@
     <t>MaxWolf</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 54 сек.</t>
+    <t>7 ч. 03 мин. 54 сек.</t>
   </si>
   <si>
     <t>260</t>
@@ -2375,7 +2375,7 @@
     <t>Yada</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 41 сек.</t>
+    <t>7 ч. 03 мин. 41 сек.</t>
   </si>
   <si>
     <t>261</t>
@@ -2384,7 +2384,7 @@
     <t>Интегрируемый</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 23 сек.</t>
+    <t>7 ч. 03 мин. 23 сек.</t>
   </si>
   <si>
     <t>262</t>
@@ -2393,7 +2393,7 @@
     <t>denisdv</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 51 сек.</t>
+    <t>7 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>263</t>
@@ -2402,7 +2402,7 @@
     <t>shicotus</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 38 сек.</t>
+    <t>7 ч. 01 мин. 38 сек.</t>
   </si>
   <si>
     <t>264</t>
@@ -2429,7 +2429,7 @@
     <t>Tigerwood</t>
   </si>
   <si>
-    <t>6 ч. 54 мин. 2 сек.</t>
+    <t>6 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>267</t>
@@ -2465,7 +2465,7 @@
     <t>NodeJS</t>
   </si>
   <si>
-    <t>6 ч. 49 мин. 8 сек.</t>
+    <t>6 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>271</t>
@@ -2519,7 +2519,7 @@
     <t>trat</t>
   </si>
   <si>
-    <t>6 ч. 45 мин. 2 сек.</t>
+    <t>6 ч. 45 мин. 02 сек.</t>
   </si>
   <si>
     <t>277</t>
@@ -2726,7 +2726,7 @@
     <t>0001111</t>
   </si>
   <si>
-    <t>6 ч. 10 мин. 5 сек.</t>
+    <t>6 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>300</t>
@@ -2735,7 +2735,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 49 сек.</t>
+    <t>6 ч. 08 мин. 49 сек.</t>
   </si>
   <si>
     <t>301</t>
@@ -2744,7 +2744,7 @@
     <t>udezich</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 43 сек.</t>
+    <t>6 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>302</t>
@@ -2753,7 +2753,7 @@
     <t>zvv</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 50 сек.</t>
+    <t>6 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>303</t>
@@ -2762,7 +2762,7 @@
     <t>Кнопочник</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 34 сек.</t>
+    <t>6 ч. 04 мин. 34 сек.</t>
   </si>
   <si>
     <t>304</t>
@@ -2771,7 +2771,7 @@
     <t>чебупеля</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 2 сек.</t>
+    <t>6 ч. 02 мин. 02 сек.</t>
   </si>
   <si>
     <t>305</t>
@@ -2780,7 +2780,7 @@
     <t>Спелый</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 49 сек.</t>
+    <t>6 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>306</t>
@@ -2789,7 +2789,7 @@
     <t>малюк</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 7 сек.</t>
+    <t>6 ч. 01 мин. 07 сек.</t>
   </si>
   <si>
     <t>307</t>
@@ -2798,7 +2798,7 @@
     <t>anomura</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 4 сек.</t>
+    <t>6 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>308</t>
@@ -2834,7 +2834,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>5 ч. 59 мин. 3 сек.</t>
+    <t>5 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>312</t>
@@ -2888,7 +2888,7 @@
     <t>DerBesondereEin</t>
   </si>
   <si>
-    <t>5 ч. 52 мин. 0 сек.</t>
+    <t>5 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>318</t>
@@ -2924,7 +2924,7 @@
     <t>Дмитрий123456</t>
   </si>
   <si>
-    <t>5 ч. 43 мин. 9 сек.</t>
+    <t>5 ч. 43 мин. 09 сек.</t>
   </si>
   <si>
     <t>322</t>
@@ -2933,7 +2933,7 @@
     <t>Razorage</t>
   </si>
   <si>
-    <t>5 ч. 42 мин. 8 сек.</t>
+    <t>5 ч. 42 мин. 08 сек.</t>
   </si>
   <si>
     <t>323</t>
@@ -2942,7 +2942,7 @@
     <t>ivanova1789</t>
   </si>
   <si>
-    <t>5 ч. 41 мин. 6 сек.</t>
+    <t>5 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>324</t>
@@ -2996,7 +2996,7 @@
     <t>Таис</t>
   </si>
   <si>
-    <t>5 ч. 38 мин. 9 сек.</t>
+    <t>5 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>330</t>
@@ -3077,7 +3077,7 @@
     <t>Castolo</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 6 сек.</t>
+    <t>5 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>339</t>
@@ -3104,7 +3104,7 @@
     <t>m19ix1ex</t>
   </si>
   <si>
-    <t>5 ч. 26 мин. 3 сек.</t>
+    <t>5 ч. 26 мин. 03 сек.</t>
   </si>
   <si>
     <t>342</t>
@@ -3131,7 +3131,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>5 ч. 22 мин. 5 сек.</t>
+    <t>5 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>345</t>
@@ -3140,7 +3140,7 @@
     <t>Инж</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 2 сек.</t>
+    <t>5 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>346</t>
@@ -3167,7 +3167,7 @@
     <t>петрови4</t>
   </si>
   <si>
-    <t>5 ч. 18 мин. 1 сек.</t>
+    <t>5 ч. 18 мин. 01 сек.</t>
   </si>
   <si>
     <t>349</t>
@@ -3176,7 +3176,7 @@
     <t>Berg4ns</t>
   </si>
   <si>
-    <t>5 ч. 15 мин. 9 сек.</t>
+    <t>5 ч. 15 мин. 09 сек.</t>
   </si>
   <si>
     <t>350</t>
@@ -3203,7 +3203,7 @@
     <t>monya2205</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 45 сек.</t>
+    <t>5 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>353</t>
@@ -3212,7 +3212,7 @@
     <t>baffuta</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 13 сек.</t>
+    <t>5 ч. 08 мин. 13 сек.</t>
   </si>
   <si>
     <t>354</t>
@@ -3221,7 +3221,7 @@
     <t>Аэрограф</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 3 сек.</t>
+    <t>5 ч. 05 мин. 03 сек.</t>
   </si>
   <si>
     <t>355</t>
@@ -3230,7 +3230,7 @@
     <t>Sunshine_k</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 15 сек.</t>
+    <t>5 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>356</t>
@@ -3239,7 +3239,7 @@
     <t>greenSnake</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 41 сек.</t>
+    <t>5 ч. 03 мин. 41 сек.</t>
   </si>
   <si>
     <t>357</t>
@@ -3248,7 +3248,7 @@
     <t>Денис3аыпп</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 35 сек.</t>
+    <t>5 ч. 03 мин. 35 сек.</t>
   </si>
   <si>
     <t>358</t>
@@ -3257,7 +3257,7 @@
     <t>chat</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 22 сек.</t>
+    <t>5 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>359</t>
@@ -3266,7 +3266,7 @@
     <t>saull</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 14 сек.</t>
+    <t>5 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>360</t>
@@ -3275,7 +3275,7 @@
     <t>DAVA</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 15 сек.</t>
+    <t>5 ч. 02 мин. 15 сек.</t>
   </si>
   <si>
     <t>361</t>
@@ -3284,7 +3284,7 @@
     <t>mantilet</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 32 сек.</t>
+    <t>5 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>362</t>
@@ -3293,7 +3293,7 @@
     <t>Ismail-06</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 30 сек.</t>
+    <t>5 ч. 00 мин. 30 сек.</t>
   </si>
   <si>
     <t>363</t>
@@ -3302,7 +3302,7 @@
     <t>tararamspb</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 25 сек.</t>
+    <t>5 ч. 00 мин. 25 сек.</t>
   </si>
   <si>
     <t>364</t>
@@ -3311,7 +3311,7 @@
     <t>kisa86</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 7 сек.</t>
+    <t>4 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>365</t>
@@ -3383,7 +3383,7 @@
     <t>a1987zz</t>
   </si>
   <si>
-    <t>4 ч. 52 мин. 6 сек.</t>
+    <t>4 ч. 52 мин. 06 сек.</t>
   </si>
   <si>
     <t>373</t>
@@ -3401,7 +3401,7 @@
     <t>AlmaKira</t>
   </si>
   <si>
-    <t>4 ч. 51 мин. 0 сек.</t>
+    <t>4 ч. 51 мин. 00 сек.</t>
   </si>
   <si>
     <t>375</t>
@@ -3545,7 +3545,7 @@
     <t>Nasten-a</t>
   </si>
   <si>
-    <t>4 ч. 31 мин. 3 сек.</t>
+    <t>4 ч. 31 мин. 03 сек.</t>
   </si>
   <si>
     <t>391</t>
@@ -3554,7 +3554,7 @@
     <t>Remergy</t>
   </si>
   <si>
-    <t>4 ч. 30 мин. 0 сек.</t>
+    <t>4 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>392</t>
@@ -3572,7 +3572,7 @@
     <t>Insane_Grinder</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 2 сек.</t>
+    <t>4 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>394</t>
@@ -3590,7 +3590,7 @@
     <t>МЕДВЕДКО15</t>
   </si>
   <si>
-    <t>4 ч. 24 мин. 2 сек.</t>
+    <t>4 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>396</t>
@@ -3608,7 +3608,7 @@
     <t>Yurilla</t>
   </si>
   <si>
-    <t>4 ч. 23 мин. 8 сек.</t>
+    <t>4 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>398</t>
@@ -3665,7 +3665,7 @@
     <t>Элена</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 51 сек.</t>
+    <t>4 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>405</t>
@@ -3674,7 +3674,7 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 16 сек.</t>
+    <t>4 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>406</t>
@@ -3683,7 +3683,7 @@
     <t>suenot</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 9 сек.</t>
+    <t>4 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>407</t>
@@ -3692,7 +3692,7 @@
     <t>noktdchd</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 16 сек.</t>
+    <t>4 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>408</t>
@@ -3701,7 +3701,7 @@
     <t>vIRwO</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 48 сек.</t>
+    <t>4 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>409</t>
@@ -3710,7 +3710,7 @@
     <t>Sensei777</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 37 сек.</t>
+    <t>4 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>410</t>
@@ -3719,7 +3719,7 @@
     <t>Fyurik</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 56 сек.</t>
+    <t>4 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>411</t>
@@ -3728,7 +3728,7 @@
     <t>fast_turtle</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 35 сек.</t>
+    <t>4 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>412</t>
@@ -3737,7 +3737,7 @@
     <t>Falster</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 16 сек.</t>
+    <t>4 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>413</t>
@@ -3746,7 +3746,7 @@
     <t>Я_Олег</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 2 сек.</t>
+    <t>4 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>414</t>
@@ -3755,7 +3755,7 @@
     <t>grebenkov</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 38 сек.</t>
+    <t>4 ч. 04 мин. 38 сек.</t>
   </si>
   <si>
     <t>415</t>
@@ -3764,7 +3764,7 @@
     <t>Sandi</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 13 сек.</t>
+    <t>4 ч. 03 мин. 13 сек.</t>
   </si>
   <si>
     <t>416</t>
@@ -3773,7 +3773,7 @@
     <t>karabaska</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 12 сек.</t>
+    <t>4 ч. 01 мин. 12 сек.</t>
   </si>
   <si>
     <t>417</t>
@@ -3782,7 +3782,7 @@
     <t>Nastena_N</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 51 сек.</t>
+    <t>4 ч. 00 мин. 51 сек.</t>
   </si>
   <si>
     <t>418</t>
@@ -3791,7 +3791,7 @@
     <t>niceflower</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 25 сек.</t>
+    <t>4 ч. 00 мин. 25 сек.</t>
   </si>
   <si>
     <t>419</t>
@@ -3836,7 +3836,7 @@
     <t>judi</t>
   </si>
   <si>
-    <t>3 ч. 55 мин. 3 сек.</t>
+    <t>3 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>424</t>
@@ -3908,7 +3908,7 @@
     <t>RainbowMan</t>
   </si>
   <si>
-    <t>3 ч. 48 мин. 2 сек.</t>
+    <t>3 ч. 48 мин. 02 сек.</t>
   </si>
   <si>
     <t>432</t>
@@ -3917,7 +3917,7 @@
     <t>KamaZ</t>
   </si>
   <si>
-    <t>3 ч. 47 мин. 4 сек.</t>
+    <t>3 ч. 47 мин. 04 сек.</t>
   </si>
   <si>
     <t>433</t>
@@ -3989,7 +3989,7 @@
     <t>Faleron</t>
   </si>
   <si>
-    <t>3 ч. 42 мин. 9 сек.</t>
+    <t>3 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>441</t>
@@ -4016,7 +4016,7 @@
     <t>Chernyshev</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 9 сек.</t>
+    <t>3 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>444</t>
@@ -4070,7 +4070,7 @@
     <t>ASplayer9119</t>
   </si>
   <si>
-    <t>3 ч. 31 мин. 2 сек.</t>
+    <t>3 ч. 31 мин. 02 сек.</t>
   </si>
   <si>
     <t>450</t>
@@ -4178,7 +4178,7 @@
     <t>wakiko</t>
   </si>
   <si>
-    <t>3 ч. 22 мин. 5 сек.</t>
+    <t>3 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>462</t>
@@ -4217,7 +4217,7 @@
     <t>Ваньсон</t>
   </si>
   <si>
-    <t>3 ч. 18 мин. 2 сек.</t>
+    <t>3 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>467</t>
@@ -4307,7 +4307,7 @@
     <t>kacegale</t>
   </si>
   <si>
-    <t>3 ч. 11 мин. 7 сек.</t>
+    <t>3 ч. 11 мин. 07 сек.</t>
   </si>
   <si>
     <t>477</t>
@@ -4316,7 +4316,7 @@
     <t>МсМотя</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 43 сек.</t>
+    <t>3 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>478</t>
@@ -4325,7 +4325,7 @@
     <t>annafil</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 33 сек.</t>
+    <t>3 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>479</t>
@@ -4334,7 +4334,7 @@
     <t>aGm</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 33 сек.</t>
+    <t>3 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>480</t>
@@ -4343,7 +4343,7 @@
     <t>Гавик</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 9 сек.</t>
+    <t>3 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>481</t>
@@ -4352,7 +4352,7 @@
     <t>zolo305</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 21 сек.</t>
+    <t>3 ч. 04 мин. 21 сек.</t>
   </si>
   <si>
     <t>482</t>
@@ -4361,7 +4361,7 @@
     <t>Валацуга</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 2 сек.</t>
+    <t>3 ч. 04 мин. 02 сек.</t>
   </si>
   <si>
     <t>483</t>
@@ -4370,7 +4370,7 @@
     <t>ASAP_Roman</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 23 сек.</t>
+    <t>3 ч. 02 мин. 23 сек.</t>
   </si>
   <si>
     <t>484</t>
@@ -4379,7 +4379,7 @@
     <t>Oxanette</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 36 сек.</t>
+    <t>3 ч. 00 мин. 36 сек.</t>
   </si>
   <si>
     <t>485</t>
@@ -4433,7 +4433,7 @@
     <t>eyflor</t>
   </si>
   <si>
-    <t>2 ч. 55 мин. 1 сек.</t>
+    <t>2 ч. 55 мин. 01 сек.</t>
   </si>
   <si>
     <t>491</t>
@@ -4622,7 +4622,7 @@
     <t>serg_omen</t>
   </si>
   <si>
-    <t>2 ч. 39 мин. 9 сек.</t>
+    <t>2 ч. 39 мин. 09 сек.</t>
   </si>
   <si>
     <t>512</t>
@@ -4640,7 +4640,7 @@
     <t>200поСкоростной</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 8 сек.</t>
+    <t>2 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>514</t>
@@ -4649,7 +4649,7 @@
     <t>SilverNeko</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 7 сек.</t>
+    <t>2 ч. 38 мин. 07 сек.</t>
   </si>
   <si>
     <t>515</t>
@@ -4802,7 +4802,7 @@
     <t>рыжий_ап</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 3 сек.</t>
+    <t>2 ч. 16 мин. 03 сек.</t>
   </si>
   <si>
     <t>532</t>
@@ -4847,7 +4847,7 @@
     <t>Александр431</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 47 сек.</t>
+    <t>2 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>537</t>
@@ -4856,7 +4856,7 @@
     <t>Bimbula</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 47 сек.</t>
+    <t>2 ч. 05 мин. 47 сек.</t>
   </si>
   <si>
     <t>538</t>
@@ -4865,7 +4865,7 @@
     <t>Hitchhiker</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 9 сек.</t>
+    <t>2 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>539</t>
@@ -4883,7 +4883,7 @@
     <t>Sev4ik</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 5 сек.</t>
+    <t>1 ч. 41 мин. 05 сек.</t>
   </si>
   <si>
     <t>541</t>
@@ -4910,7 +4910,7 @@
     <t>АдамБожевич</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 6 сек.</t>
+    <t>1 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>544</t>
@@ -4937,7 +4937,7 @@
     <t>SnowMen</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 7 сек.</t>
+    <t>1 ч. 23 мин. 07 сек.</t>
   </si>
   <si>
     <t>547</t>
@@ -4955,7 +4955,7 @@
     <t>tamapetyshko</t>
   </si>
   <si>
-    <t>1 ч. 12 мин. 2 сек.</t>
+    <t>1 ч. 12 мин. 02 сек.</t>
   </si>
 </sst>
 </file>
